--- a/biology/Zoologie/Courol_vouroudriou/Courol_vouroudriou.xlsx
+++ b/biology/Zoologie/Courol_vouroudriou/Courol_vouroudriou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptosomus discolor
 Le Courol vouroudriou (Leptosomus discolor) est une espèce d'oiseaux ayant la particularité d'être l'unique représentante de l'ordre des Leptosomiformes.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le courol vouroudriou ou coucou-rollier est caractérisé par sa tête massive, presque disproportionnée par rapport au reste du corps, son bec trapu, et ses longues ailes légèrement arrondies. Sa queue est modérément allongée et ses pattes sont très courtes. Contrairement aux vrais rolliers et aux rolliers terrestres chez lesquels les sexes sont assez semblables, les courols affichent un dimorphisme sexuel très prononcé. Chez les mâles, le dos et les couvertures alaires sont gris noirâtre avec un lustre brillant vert métallique et rouge-mauve. Les parties inférieures, la tête et la nuque sont gris cendré, contrastant avec le capuchon et le dos plus sombres. Les femelles adultes et les juvéniles présentent un dessus brun foncé, barré de noir et de roux sur le capuchon. Le dessous est roux pâle, fortement tacheté de noir. Le dessous de la queue est gris-olive. Le rebord de l'aile porte une barre roux-cannelle, particulièrement visible en vol.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les forêts tropicales et subtropicales et les habitats secondaires.
 </t>
@@ -575,7 +591,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce était classée par Alan P. Peterson dans l'ordre Coraciiformes mais elle est maintenant classée par le Congrès ornithologique international (version 2.2, 2009) dans l'ordre Leptosomatiformes.
 </t>
@@ -606,7 +624,9 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est endémique de l'archipel des Comores et de Madagascar. 
 D'après congrès ornithologique international, il est réparti en trois sous-espèces :
